--- a/Specification/Addressing.xlsx
+++ b/Specification/Addressing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\artst\Documents\! My\Progects\! Programming\ASD\ASD.NES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\artst\Documents\! My\Progects\! Programming\ASD\ASD.NES\Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
   <si>
     <t>IMM</t>
   </si>
@@ -54,6 +55,135 @@
   </si>
   <si>
     <t>IDY</t>
+  </si>
+  <si>
+    <t>read-write</t>
+  </si>
+  <si>
+    <t>read only</t>
+  </si>
+  <si>
+    <t>write only</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>ABSOLUTE</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>BYTES</t>
+  </si>
+  <si>
+    <t>CYCLES</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>exeptional cases</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>succ</t>
+  </si>
+  <si>
+    <t>new pg</t>
+  </si>
+  <si>
+    <t>pc++</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>&gt;&gt; addr</t>
+  </si>
+  <si>
+    <t>&gt;&gt; addr L</t>
+  </si>
+  <si>
+    <t>&gt;&gt; addr H</t>
+  </si>
+  <si>
+    <t>&gt;&gt; M</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>&gt;&gt; r(addr + X + 1)</t>
+  </si>
+  <si>
+    <t>r(addr)</t>
+  </si>
+  <si>
+    <t>r(addr + X)</t>
+  </si>
+  <si>
+    <t>r(pc)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; r(H|L)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; r(H|L + X)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; r(H|L + Y)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; r(addr + 1)</t>
+  </si>
+  <si>
+    <t>INY</t>
+  </si>
+  <si>
+    <t>r(L)</t>
+  </si>
+  <si>
+    <t>r(L + X)</t>
+  </si>
+  <si>
+    <t>r(L + Y)</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -69,12 +199,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +255,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,65 +619,1824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B11"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
+        <v>6</v>
+      </c>
+      <c r="N19" s="2">
+        <v>7</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" s="10"/>
+      <c r="W19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2">
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+      <c r="S24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+      <c r="S25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="8"/>
+      <c r="S27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="10"/>
+      <c r="W27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="8"/>
+      <c r="S28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="9"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+      <c r="S30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+      <c r="S31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+    </row>
+    <row r="33" spans="18:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="8"/>
+      <c r="S33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="9"/>
+      <c r="U33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="10"/>
+      <c r="W33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="18:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="8"/>
+      <c r="S34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="9"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="213">
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="Y23:Z24"/>
+    <mergeCell ref="AA22:AB25"/>
+    <mergeCell ref="AA14:AB17"/>
+    <mergeCell ref="AA18:AB21"/>
+    <mergeCell ref="AC22:AD25"/>
+    <mergeCell ref="AC14:AD17"/>
+    <mergeCell ref="AC18:AD21"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE22:AF25"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AE14:AF17"/>
+    <mergeCell ref="AE18:AF21"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="AG2:AH4"/>
+    <mergeCell ref="AC5:AH7"/>
+    <mergeCell ref="AC8:AH10"/>
+    <mergeCell ref="AC11:AH13"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A1:Q3"/>
+    <mergeCell ref="A21:Q23"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>